--- a/Humidity-Chamber-v1-BOM.xlsx
+++ b/Humidity-Chamber-v1-BOM.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10312"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11214"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ofer/HMS Dropbox/RIC/Projects/Datta - Olfactometer v4/HMS_Olfactometer/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ofer/HMS Dropbox/RIC/Projects/Datta Lab Humidity Chamber PCB/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D755244D-88F3-7442-BB68-16F1D9E4F686}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72557D58-E1BF-BD4D-9453-A86034E30A2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="46080" windowHeight="25420" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="39140" windowHeight="25420" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="76">
   <si>
     <t>Vendor</t>
   </si>
@@ -59,15 +59,6 @@
     <t>PCB</t>
   </si>
   <si>
-    <t>Lee</t>
-  </si>
-  <si>
-    <t>8-valve manifold</t>
-  </si>
-  <si>
-    <t>LHDB1242115H</t>
-  </si>
-  <si>
     <t>Notes</t>
   </si>
   <si>
@@ -80,12 +71,6 @@
     <t>McMaster</t>
   </si>
   <si>
-    <t>3-way valve</t>
-  </si>
-  <si>
-    <t>LFMX0527800B</t>
-  </si>
-  <si>
     <t>WM5514-ND</t>
   </si>
   <si>
@@ -104,9 +89,6 @@
     <t>PCB Label</t>
   </si>
   <si>
-    <t>HMS Olfactometer v4: Part List</t>
-  </si>
-  <si>
     <t>Sensirion SFC6000D-5slm</t>
   </si>
   <si>
@@ -122,42 +104,15 @@
     <t>U1</t>
   </si>
   <si>
-    <t>1x14 Socket</t>
-  </si>
-  <si>
-    <t>C1,C2</t>
-  </si>
-  <si>
     <t>D1</t>
   </si>
   <si>
-    <t>J15</t>
-  </si>
-  <si>
-    <t>J24</t>
-  </si>
-  <si>
-    <t>J25</t>
-  </si>
-  <si>
     <t>R1</t>
   </si>
   <si>
-    <t>R2</t>
-  </si>
-  <si>
-    <t>R3</t>
-  </si>
-  <si>
-    <t>R4</t>
-  </si>
-  <si>
     <t>SW1</t>
   </si>
   <si>
-    <t>U16</t>
-  </si>
-  <si>
     <t>Senserion connectors</t>
   </si>
   <si>
@@ -179,77 +134,18 @@
     <t>500SSP1S1M6QEA</t>
   </si>
   <si>
-    <t>ULN2803A</t>
-  </si>
-  <si>
-    <t>MCP23008</t>
-  </si>
-  <si>
-    <t>R-78B12-2.0</t>
-  </si>
-  <si>
-    <t>J7–14</t>
-  </si>
-  <si>
-    <t>J1–6</t>
-  </si>
-  <si>
-    <t>J16–19</t>
-  </si>
-  <si>
-    <t>J20–23</t>
-  </si>
-  <si>
-    <t>R5–8,R16</t>
-  </si>
-  <si>
-    <t>U2,U4,U6,U8,
-U10,U12,U14</t>
-  </si>
-  <si>
-    <t>U3,U5,U7,U9,
-U11,U13,U15</t>
-  </si>
-  <si>
-    <t>Capacitor</t>
-  </si>
-  <si>
     <t>1x24 Socket</t>
   </si>
   <si>
-    <t>1x2 Socket/Connector</t>
-  </si>
-  <si>
     <t>Barrel Jack</t>
   </si>
   <si>
-    <t>BNC connector</t>
-  </si>
-  <si>
-    <t>1x16 Socket</t>
-  </si>
-  <si>
     <t>Qwiic connector</t>
   </si>
   <si>
     <t>Switch</t>
   </si>
   <si>
-    <t>I/O expander</t>
-  </si>
-  <si>
-    <t>Darlington Transistor Array</t>
-  </si>
-  <si>
-    <t>12 VDC regulator</t>
-  </si>
-  <si>
-    <t>Optional</t>
-  </si>
-  <si>
-    <t>10µF</t>
-  </si>
-  <si>
     <t>LED 3mm</t>
   </si>
   <si>
@@ -262,72 +158,21 @@
     <t>WM26835CT-ND</t>
   </si>
   <si>
-    <t>S7049-ND</t>
-  </si>
-  <si>
-    <t>497-2356-5-ND</t>
-  </si>
-  <si>
-    <t>MCP23008-E/P-ND</t>
-  </si>
-  <si>
-    <t>Quantity depends on total number of valves needed</t>
-  </si>
-  <si>
-    <t>945-3041-ND</t>
-  </si>
-  <si>
-    <t>Teensy 4.0 with Headers</t>
-  </si>
-  <si>
-    <t>S7047-ND</t>
-  </si>
-  <si>
     <t>EG2478-ND</t>
   </si>
   <si>
-    <t>560Ω</t>
-  </si>
-  <si>
-    <t>Between 8–48, used in groups of 8</t>
-  </si>
-  <si>
-    <t>2-way solenoid valve, 12V</t>
-  </si>
-  <si>
-    <t>LHDA1231115H</t>
-  </si>
-  <si>
-    <t>Up to 8 aux valves. (Could try LHDA1231215H for better chemical resistance)</t>
-  </si>
-  <si>
-    <t>478-TAP106K035SRSCT-ND</t>
-  </si>
-  <si>
     <t>Optional; Be sure to cut solder jumper (JP1) if using switch</t>
   </si>
   <si>
     <t>732-5008-ND</t>
   </si>
   <si>
-    <t>1k</t>
-  </si>
-  <si>
     <t>TOTAL</t>
   </si>
   <si>
-    <t>Up to 6 of these</t>
-  </si>
-  <si>
-    <t>Up to 4 of these, 2 is typical</t>
-  </si>
-  <si>
     <t>92745A320</t>
   </si>
   <si>
-    <t>Could use 1x2 socket (S7035-ND) or MTA-100 connector (A19423-ND), etc….</t>
-  </si>
-  <si>
     <t>Or try A32245-ND</t>
   </si>
   <si>
@@ -340,22 +185,85 @@
     <t>455-SM04B-SRSS-TBCT-ND</t>
   </si>
   <si>
-    <t>Optional; (Or Sparkfun  PRT-14417)</t>
-  </si>
-  <si>
-    <t>Power Supply 24V DC 1A(?)</t>
-  </si>
-  <si>
-    <t>XXXXX</t>
-  </si>
-  <si>
     <t>2171-QSPK18-1/4-U-ND</t>
   </si>
   <si>
     <t>1/4" Tubing Adptor for MFCs (10 pack)</t>
   </si>
   <si>
-    <t>Helpful if using 1/4" OD Tubing; Otherwise MFCs will work with 6mm OD tubing</t>
+    <t>Sensirion MFM</t>
+  </si>
+  <si>
+    <t>Helpful if using 1/4" OD Tubing; By default MFCs will work with 6mm OD tubing</t>
+  </si>
+  <si>
+    <t>J1–2</t>
+  </si>
+  <si>
+    <t>J3–5</t>
+  </si>
+  <si>
+    <t>J6</t>
+  </si>
+  <si>
+    <t>J7</t>
+  </si>
+  <si>
+    <t>J8</t>
+  </si>
+  <si>
+    <t>4-way RJ-45 Connector</t>
+  </si>
+  <si>
+    <t>J11,J12,J19,J20</t>
+  </si>
+  <si>
+    <t>J9–10, J13–18, J21–24</t>
+  </si>
+  <si>
+    <t>R2,R8</t>
+  </si>
+  <si>
+    <t>R3,R4,R9,R10</t>
+  </si>
+  <si>
+    <t>R5,R7,R11,R13</t>
+  </si>
+  <si>
+    <t>R6,R12</t>
+  </si>
+  <si>
+    <t>Teensy 4.1 with Headers</t>
+  </si>
+  <si>
+    <t>S7045-ND</t>
+  </si>
+  <si>
+    <t>Datta Lab Humidity Chamber Controller: Part List</t>
+  </si>
+  <si>
+    <t>1x12 Socket</t>
+  </si>
+  <si>
+    <t>BNC Connector</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1x3 Header </t>
+  </si>
+  <si>
+    <t>A19430-ND</t>
+  </si>
+  <si>
+    <t>2k</t>
+  </si>
+  <si>
+    <t>1649-SFM6000D-5SLM-ND</t>
+  </si>
+  <si>
+    <t>Power Supply 24V DC 2A</t>
+  </si>
+  <si>
+    <t>364-1286-ND</t>
   </si>
 </sst>
 </file>
@@ -473,7 +381,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -485,14 +393,16 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -877,28 +787,28 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K42"/>
+  <dimension ref="A2:K36"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L7" sqref="L7"/>
+      <selection pane="bottomLeft" activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="5" customWidth="1"/>
-    <col min="2" max="2" width="13.875" style="8" customWidth="1"/>
+    <col min="2" max="2" width="23.625" style="7" customWidth="1"/>
     <col min="3" max="3" width="23.875" customWidth="1"/>
     <col min="4" max="4" width="18" customWidth="1"/>
     <col min="6" max="6" width="25.125" customWidth="1"/>
     <col min="7" max="7" width="3.875" customWidth="1"/>
-    <col min="8" max="9" width="10.625" style="9"/>
+    <col min="8" max="9" width="10.625" style="8"/>
     <col min="10" max="10" width="3.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:11" ht="31" x14ac:dyDescent="0.35">
       <c r="C2" s="6" t="s">
-        <v>22</v>
+        <v>67</v>
       </c>
       <c r="D2" s="6"/>
     </row>
@@ -907,13 +817,13 @@
         <v>5</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>0</v>
@@ -931,7 +841,7 @@
         <v>3</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
@@ -939,26 +849,23 @@
         <v>1</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="E6" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F6" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="G6">
-        <v>2</v>
-      </c>
-      <c r="H6" s="9">
-        <v>406</v>
-      </c>
-      <c r="I6" s="9">
+        <v>8</v>
+      </c>
+      <c r="H6" s="8">
+        <v>372</v>
+      </c>
+      <c r="I6" s="8">
         <f>G6*H6</f>
-        <v>812</v>
-      </c>
-      <c r="K6" t="s">
-        <v>93</v>
+        <v>2976</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
@@ -966,23 +873,23 @@
         <v>2</v>
       </c>
       <c r="C7" t="s">
-        <v>97</v>
+        <v>51</v>
       </c>
       <c r="E7" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F7" t="s">
-        <v>98</v>
+        <v>73</v>
       </c>
       <c r="G7">
-        <v>2</v>
-      </c>
-      <c r="H7" s="9">
-        <v>2.5</v>
-      </c>
-      <c r="I7" s="9">
+        <v>4</v>
+      </c>
+      <c r="H7" s="8">
+        <v>218</v>
+      </c>
+      <c r="I7" s="8">
         <f>G7*H7</f>
-        <v>5</v>
+        <v>872</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
@@ -990,131 +897,134 @@
         <v>3</v>
       </c>
       <c r="C8" t="s">
-        <v>104</v>
+        <v>46</v>
       </c>
       <c r="E8" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F8" t="s">
-        <v>103</v>
+        <v>47</v>
       </c>
       <c r="G8">
-        <v>1</v>
-      </c>
-      <c r="H8" s="9">
+        <v>12</v>
+      </c>
+      <c r="H8" s="8">
+        <v>2.5</v>
+      </c>
+      <c r="I8" s="8">
+        <f>G8*H8</f>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>4</v>
+      </c>
+      <c r="C9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E9" t="s">
+        <v>8</v>
+      </c>
+      <c r="F9" t="s">
+        <v>49</v>
+      </c>
+      <c r="G9">
+        <v>3</v>
+      </c>
+      <c r="H9" s="8">
         <v>24.3</v>
       </c>
-      <c r="I8" s="9">
-        <f>G8*H8</f>
-        <v>24.3</v>
-      </c>
-      <c r="K8" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A10">
-        <v>4</v>
-      </c>
-      <c r="C10" t="s">
-        <v>84</v>
-      </c>
-      <c r="E10" t="s">
-        <v>7</v>
-      </c>
-      <c r="F10" t="s">
-        <v>9</v>
-      </c>
-      <c r="G10">
-        <v>48</v>
-      </c>
-      <c r="H10" s="9">
-        <v>53.07</v>
-      </c>
-      <c r="I10" s="9">
-        <f t="shared" ref="I10:I35" si="0">G10*H10</f>
-        <v>2547.36</v>
-      </c>
-      <c r="K10" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A11">
-        <v>5</v>
-      </c>
-      <c r="C11" t="s">
-        <v>8</v>
-      </c>
-      <c r="E11" t="s">
-        <v>7</v>
-      </c>
-      <c r="F11" t="s">
-        <v>15</v>
-      </c>
-      <c r="G11">
-        <v>6</v>
-      </c>
-      <c r="H11" s="9">
-        <v>102.01</v>
-      </c>
-      <c r="I11" s="9">
-        <f t="shared" si="0"/>
-        <v>612.06000000000006</v>
-      </c>
-      <c r="K11" t="s">
-        <v>92</v>
+      <c r="I9" s="8">
+        <f>G9*H9</f>
+        <v>72.900000000000006</v>
+      </c>
+      <c r="K9" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12">
+        <v>5</v>
+      </c>
+      <c r="C12" t="s">
         <v>6</v>
       </c>
-      <c r="C12" t="s">
+      <c r="E12" t="s">
         <v>14</v>
       </c>
-      <c r="E12" t="s">
-        <v>7</v>
-      </c>
-      <c r="F12" t="s">
-        <v>85</v>
-      </c>
       <c r="G12">
-        <v>8</v>
-      </c>
-      <c r="H12" s="9">
-        <v>60</v>
-      </c>
-      <c r="I12" s="9">
-        <f t="shared" si="0"/>
-        <v>480</v>
+        <v>1</v>
+      </c>
+      <c r="H12" s="8">
+        <v>33</v>
+      </c>
+      <c r="I12" s="8">
+        <f t="shared" ref="I12:I31" si="0">G12*H12</f>
+        <v>33</v>
       </c>
       <c r="K12" t="s">
-        <v>86</v>
+        <v>15</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14">
-        <v>7</v>
+        <v>6</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>22</v>
       </c>
       <c r="C14" t="s">
-        <v>6</v>
-      </c>
-      <c r="E14" t="s">
-        <v>19</v>
+        <v>36</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F14" t="s">
+        <v>42</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
-      <c r="H14" s="9">
-        <v>33</v>
-      </c>
-      <c r="I14" s="9">
+      <c r="H14" s="8">
+        <v>0.15</v>
+      </c>
+      <c r="I14" s="8">
         <f t="shared" si="0"/>
-        <v>33</v>
+        <v>0.15</v>
       </c>
       <c r="K14" t="s">
-        <v>20</v>
+        <v>37</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>7</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C15" t="s">
+        <v>69</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F15" t="s">
+        <v>11</v>
+      </c>
+      <c r="G15">
+        <v>2</v>
+      </c>
+      <c r="H15" s="8">
+        <v>4.6900000000000004</v>
+      </c>
+      <c r="I15" s="8">
+        <f t="shared" si="0"/>
+        <v>9.3800000000000008</v>
+      </c>
+      <c r="K15" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
@@ -1122,32 +1032,23 @@
         <v>8</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>29</v>
+        <v>54</v>
       </c>
       <c r="C16" t="s">
-        <v>57</v>
-      </c>
-      <c r="D16" t="s">
-        <v>69</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>11</v>
+        <v>70</v>
+      </c>
+      <c r="E16" t="s">
+        <v>8</v>
       </c>
       <c r="F16" t="s">
-        <v>87</v>
+        <v>71</v>
       </c>
       <c r="G16">
-        <v>2</v>
-      </c>
-      <c r="H16" s="9">
-        <v>1.18</v>
-      </c>
-      <c r="I16" s="9">
+        <v>3</v>
+      </c>
+      <c r="I16" s="8">
         <f t="shared" si="0"/>
-        <v>2.36</v>
-      </c>
-      <c r="K16" t="s">
-        <v>68</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.2">
@@ -1155,29 +1056,23 @@
         <v>9</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>30</v>
+        <v>55</v>
       </c>
       <c r="C17" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F17" t="s">
-        <v>89</v>
+        <v>66</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
-      <c r="H17" s="9">
-        <v>0.15</v>
-      </c>
-      <c r="I17" s="9">
+      <c r="I17" s="8">
         <f t="shared" si="0"/>
-        <v>0.15</v>
-      </c>
-      <c r="K17" t="s">
-        <v>71</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.2">
@@ -1185,26 +1080,22 @@
         <v>10</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="C18" s="10" t="s">
-        <v>58</v>
+        <v>56</v>
+      </c>
+      <c r="C18" t="s">
+        <v>33</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F18" t="s">
-        <v>18</v>
-      </c>
-      <c r="G18">
-        <v>6</v>
-      </c>
-      <c r="H18" s="9">
-        <v>1.43</v>
-      </c>
-      <c r="I18" s="9">
-        <f t="shared" si="0"/>
-        <v>8.58</v>
+        <v>8</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G18" s="3">
+        <v>1</v>
+      </c>
+      <c r="H18" s="10">
+        <v>0.61</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.2">
@@ -1212,50 +1103,42 @@
         <v>11</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="C19" t="s">
-        <v>59</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G19">
-        <v>8</v>
-      </c>
-      <c r="I19" s="9">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K19" t="s">
-        <v>95</v>
-      </c>
+        <v>58</v>
+      </c>
+      <c r="E19" s="3"/>
+      <c r="F19" s="11"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>12</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>31</v>
+        <v>60</v>
       </c>
       <c r="C20" t="s">
-        <v>60</v>
+        <v>25</v>
+      </c>
+      <c r="D20" t="s">
+        <v>38</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F20" t="s">
-        <v>17</v>
+        <v>39</v>
       </c>
       <c r="G20">
-        <v>1</v>
-      </c>
-      <c r="H20" s="9">
-        <v>0.61</v>
-      </c>
-      <c r="I20" s="9">
+        <v>12</v>
+      </c>
+      <c r="H20" s="8">
+        <v>1.02</v>
+      </c>
+      <c r="I20" s="8">
         <f t="shared" si="0"/>
-        <v>0.61</v>
+        <v>12.24</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.2">
@@ -1263,29 +1146,29 @@
         <v>13</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="C21" t="s">
-        <v>40</v>
-      </c>
-      <c r="D21" t="s">
-        <v>72</v>
+        <v>34</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F21" t="s">
-        <v>73</v>
+        <v>48</v>
       </c>
       <c r="G21">
-        <v>4</v>
-      </c>
-      <c r="H21" s="9">
-        <v>1.02</v>
-      </c>
-      <c r="I21" s="9">
+        <v>1</v>
+      </c>
+      <c r="H21" s="8">
+        <v>0.52</v>
+      </c>
+      <c r="I21" s="8">
         <f t="shared" si="0"/>
-        <v>4.08</v>
+        <v>0.52</v>
+      </c>
+      <c r="K21" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.2">
@@ -1293,29 +1176,21 @@
         <v>14</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>53</v>
+        <v>23</v>
       </c>
       <c r="C22" t="s">
-        <v>61</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F22" t="s">
-        <v>16</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="D22" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="E22" s="3"/>
       <c r="G22">
-        <v>4</v>
-      </c>
-      <c r="H22" s="9">
-        <v>4.6900000000000004</v>
-      </c>
-      <c r="I22" s="9">
+        <v>1</v>
+      </c>
+      <c r="I22" s="8">
         <f t="shared" si="0"/>
-        <v>18.760000000000002</v>
-      </c>
-      <c r="K22" t="s">
-        <v>96</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.2">
@@ -1323,26 +1198,21 @@
         <v>15</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>32</v>
+        <v>61</v>
       </c>
       <c r="C23" t="s">
-        <v>62</v>
-      </c>
-      <c r="E23" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F23" t="s">
-        <v>74</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="D23" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="E23" s="3"/>
       <c r="G23">
-        <v>1</v>
-      </c>
-      <c r="H23" s="9">
-        <v>0.93</v>
-      </c>
-      <c r="I23" s="9">
+        <v>2</v>
+      </c>
+      <c r="I23" s="8">
         <f t="shared" si="0"/>
-        <v>0.93</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.2">
@@ -1350,29 +1220,21 @@
         <v>16</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>33</v>
+        <v>62</v>
       </c>
       <c r="C24" t="s">
-        <v>63</v>
-      </c>
-      <c r="E24" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F24" t="s">
-        <v>99</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="D24" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="E24" s="3"/>
       <c r="G24">
-        <v>1</v>
-      </c>
-      <c r="H24" s="9">
-        <v>0.52</v>
-      </c>
-      <c r="I24" s="9">
+        <v>4</v>
+      </c>
+      <c r="I24" s="8">
         <f t="shared" si="0"/>
-        <v>0.52</v>
-      </c>
-      <c r="K24" t="s">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.2">
@@ -1380,19 +1242,18 @@
         <v>17</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>34</v>
+        <v>63</v>
       </c>
       <c r="C25" t="s">
-        <v>41</v>
-      </c>
-      <c r="D25" t="s">
-        <v>82</v>
-      </c>
-      <c r="E25" s="3"/>
+        <v>26</v>
+      </c>
+      <c r="D25" s="9">
+        <v>560</v>
+      </c>
       <c r="G25">
-        <v>1</v>
-      </c>
-      <c r="I25" s="9">
+        <v>4</v>
+      </c>
+      <c r="I25" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -1402,19 +1263,18 @@
         <v>18</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>35</v>
+        <v>64</v>
       </c>
       <c r="C26" t="s">
-        <v>41</v>
-      </c>
-      <c r="D26" t="s">
-        <v>43</v>
-      </c>
-      <c r="E26" s="3"/>
+        <v>26</v>
+      </c>
+      <c r="D26" s="9" t="s">
+        <v>29</v>
+      </c>
       <c r="G26">
-        <v>1</v>
-      </c>
-      <c r="I26" s="9">
+        <v>2</v>
+      </c>
+      <c r="I26" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -1424,21 +1284,32 @@
         <v>19</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="C27" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="D27" t="s">
-        <v>44</v>
-      </c>
-      <c r="E27" s="3"/>
+        <v>31</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F27" t="s">
+        <v>40</v>
+      </c>
       <c r="G27">
         <v>1</v>
       </c>
-      <c r="I27" s="9">
+      <c r="H27" s="8">
+        <v>3.92</v>
+      </c>
+      <c r="I27" s="8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3.92</v>
+      </c>
+      <c r="K27" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.2">
@@ -1446,269 +1317,108 @@
         <v>20</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="C28" t="s">
-        <v>41</v>
-      </c>
-      <c r="D28" t="s">
-        <v>90</v>
+        <v>65</v>
+      </c>
+      <c r="E28" t="s">
+        <v>19</v>
+      </c>
+      <c r="F28" t="s">
+        <v>20</v>
       </c>
       <c r="G28">
         <v>1</v>
       </c>
-      <c r="I28" s="9">
+      <c r="H28" s="8">
+        <v>26.8</v>
+      </c>
+      <c r="I28" s="8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>26.8</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>21</v>
       </c>
-      <c r="B29" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="C29" t="s">
-        <v>41</v>
-      </c>
-      <c r="D29" t="s">
-        <v>45</v>
+      <c r="B29" s="4"/>
+      <c r="C29" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F29" s="12" t="s">
+        <v>13</v>
       </c>
       <c r="G29">
-        <v>5</v>
-      </c>
-      <c r="I29" s="9">
+        <v>2</v>
+      </c>
+      <c r="H29" s="8">
+        <v>1.35</v>
+      </c>
+      <c r="I29" s="8">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A30">
-        <v>22</v>
-      </c>
-      <c r="B30" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="C30" t="s">
-        <v>64</v>
-      </c>
-      <c r="D30" t="s">
-        <v>46</v>
-      </c>
-      <c r="E30" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F30" t="s">
-        <v>81</v>
-      </c>
-      <c r="G30">
-        <v>1</v>
-      </c>
-      <c r="H30" s="9">
-        <v>3.92</v>
-      </c>
-      <c r="I30" s="9">
-        <f t="shared" si="0"/>
-        <v>3.92</v>
-      </c>
-      <c r="K30" t="s">
-        <v>88</v>
+        <v>2.7</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A31">
-        <v>23</v>
-      </c>
-      <c r="B31" s="4" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="C31" t="s">
-        <v>79</v>
-      </c>
-      <c r="E31" t="s">
-        <v>25</v>
+        <v>74</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="F31" t="s">
-        <v>26</v>
+        <v>75</v>
       </c>
       <c r="G31">
         <v>1</v>
       </c>
-      <c r="H31" s="9">
-        <v>26.8</v>
-      </c>
-      <c r="I31" s="9">
+      <c r="H31" s="8">
+        <v>19.38</v>
+      </c>
+      <c r="I31" s="8">
         <f t="shared" si="0"/>
-        <v>26.8</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A32">
-        <v>24</v>
-      </c>
-      <c r="B32" s="4"/>
-      <c r="C32" t="s">
-        <v>28</v>
-      </c>
-      <c r="E32" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F32" t="s">
-        <v>80</v>
-      </c>
-      <c r="G32">
-        <v>2</v>
-      </c>
-      <c r="H32" s="9">
-        <v>0.87</v>
-      </c>
-      <c r="I32" s="9">
-        <f t="shared" si="0"/>
-        <v>1.74</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11" ht="38" x14ac:dyDescent="0.2">
+        <v>19.38</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A33">
-        <v>25</v>
-      </c>
-      <c r="B33" s="7" t="s">
-        <v>55</v>
+        <v>23</v>
       </c>
       <c r="C33" t="s">
-        <v>66</v>
-      </c>
-      <c r="D33" t="s">
-        <v>47</v>
-      </c>
-      <c r="E33" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
+      </c>
+      <c r="E33" t="s">
+        <v>10</v>
       </c>
       <c r="F33" t="s">
-        <v>75</v>
+        <v>44</v>
       </c>
       <c r="G33">
-        <v>7</v>
-      </c>
-      <c r="H33" s="9">
-        <v>2.41</v>
-      </c>
-      <c r="I33" s="9">
-        <f t="shared" si="0"/>
-        <v>16.87</v>
-      </c>
-      <c r="K33" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11" ht="38" x14ac:dyDescent="0.2">
-      <c r="A34">
-        <v>26</v>
-      </c>
-      <c r="B34" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="C34" t="s">
-        <v>65</v>
-      </c>
-      <c r="D34" t="s">
-        <v>48</v>
-      </c>
-      <c r="E34" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F34" t="s">
-        <v>76</v>
-      </c>
-      <c r="G34">
-        <v>7</v>
-      </c>
-      <c r="H34" s="9">
-        <v>1.54</v>
-      </c>
-      <c r="I34" s="9">
-        <f t="shared" si="0"/>
-        <v>10.780000000000001</v>
-      </c>
-      <c r="K34" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A35">
-        <v>27</v>
-      </c>
-      <c r="B35" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="C35" t="s">
-        <v>67</v>
-      </c>
-      <c r="D35" t="s">
-        <v>49</v>
-      </c>
-      <c r="E35" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F35" t="s">
-        <v>78</v>
-      </c>
-      <c r="G35">
-        <v>1</v>
-      </c>
-      <c r="H35" s="9">
-        <v>11.94</v>
-      </c>
-      <c r="I35" s="9">
-        <f t="shared" si="0"/>
-        <v>11.94</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A37">
-        <v>28</v>
-      </c>
-      <c r="C37" t="s">
-        <v>101</v>
-      </c>
-      <c r="E37" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F37" s="1" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A39">
-        <v>29</v>
-      </c>
-      <c r="C39" t="s">
-        <v>12</v>
-      </c>
-      <c r="E39" t="s">
-        <v>13</v>
-      </c>
-      <c r="F39" t="s">
-        <v>94</v>
-      </c>
-      <c r="G39">
-        <v>6</v>
-      </c>
-      <c r="H39" s="9">
+        <v>4</v>
+      </c>
+      <c r="H33" s="8">
         <v>0.63</v>
       </c>
-      <c r="I39" s="9">
-        <f t="shared" ref="I39" si="1">G39*H39</f>
-        <v>3.7800000000000002</v>
-      </c>
-    </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="H42" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="I42" s="2">
-        <f>SUM(I6:I41)</f>
-        <v>4625.5399999999981</v>
+      <c r="I33" s="8">
+        <f t="shared" ref="I33" si="1">G33*H33</f>
+        <v>2.52</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H36" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="I36" s="2">
+        <f>SUM(I6:I35)</f>
+        <v>4061.51</v>
       </c>
     </row>
   </sheetData>

--- a/Humidity-Chamber-v1-BOM.xlsx
+++ b/Humidity-Chamber-v1-BOM.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ofer/HMS Dropbox/RIC/Projects/Datta Lab Humidity Chamber PCB/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72557D58-E1BF-BD4D-9453-A86034E30A2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38655124-739D-3144-898C-6569F0334B60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="39140" windowHeight="25420" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="77">
   <si>
     <t>Vendor</t>
   </si>
@@ -264,6 +264,9 @@
   </si>
   <si>
     <t>364-1286-ND</t>
+  </si>
+  <si>
+    <t>151-1120-ND</t>
   </si>
 </sst>
 </file>
@@ -381,7 +384,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -401,8 +404,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -791,7 +792,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K7" sqref="K7"/>
+      <selection pane="bottomLeft" activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0.2"/>
@@ -1097,6 +1098,10 @@
       <c r="H18" s="10">
         <v>0.61</v>
       </c>
+      <c r="I18" s="8">
+        <f t="shared" si="0"/>
+        <v>0.61</v>
+      </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19">
@@ -1108,8 +1113,22 @@
       <c r="C19" t="s">
         <v>58</v>
       </c>
-      <c r="E19" s="3"/>
-      <c r="F19" s="11"/>
+      <c r="E19" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="G19">
+        <v>1</v>
+      </c>
+      <c r="H19" s="8">
+        <v>4.12</v>
+      </c>
+      <c r="I19" s="8">
+        <f t="shared" si="0"/>
+        <v>4.12</v>
+      </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20">
@@ -1344,13 +1363,13 @@
         <v>21</v>
       </c>
       <c r="B29" s="4"/>
-      <c r="C29" s="12" t="s">
+      <c r="C29" t="s">
         <v>32</v>
       </c>
       <c r="E29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F29" s="12" t="s">
+      <c r="F29" t="s">
         <v>13</v>
       </c>
       <c r="G29">
@@ -1418,7 +1437,7 @@
       </c>
       <c r="I36" s="2">
         <f>SUM(I6:I35)</f>
-        <v>4061.51</v>
+        <v>4066.2400000000002</v>
       </c>
     </row>
   </sheetData>
